--- a/guide.xlsx
+++ b/guide.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="yukalangbuana"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="5058"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="14670" windowHeight="5055" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1551256869" val="934" rev="123" rev64="64" revOS="3"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1551256869" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1551256869" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1551256869"/>
     </ext>
   </extLst>
 </workbook>
@@ -38,14 +37,79 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551256869" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551256869" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551256869" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551256869" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
   <fills count="2">
@@ -58,30 +122,42 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1551256869"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1551256869" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      </pm:charStyles>
     </ext>
   </extLst>
 </styleSheet>
@@ -98,106 +174,46 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -209,4161 +225,4635 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="O138" sqref="O138"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="1" width="8.669643" style="1"/>
+    <col min="2" max="2" width="8.669643" style="2"/>
+    <col min="4" max="4" width="8.669643" style="1"/>
+    <col min="5" max="5" width="8.669643" style="2"/>
+    <col min="7" max="7" width="8.669643" style="1"/>
+    <col min="8" max="8" width="8.669643" style="2"/>
+    <col min="10" max="10" width="8.669643" style="1"/>
+    <col min="11" max="11" width="8.669643" style="2"/>
+    <col min="13" max="13" width="8.669643" style="1"/>
+    <col min="14" max="14" width="8.669643" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="n">
         <v>55100</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2" t="n">
         <v>55238</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1">
+      <c r="J1" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="L1">
+      <c r="K1" s="2" t="n">
         <v>55514</v>
       </c>
-      <c r="N1">
+      <c r="M1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>55101</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2" t="n">
         <v>55239</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2" t="n">
         <v>55376</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="L2">
+      <c r="K2" s="2" t="n">
         <v>55515</v>
       </c>
-      <c r="N2">
+      <c r="M2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="N2" s="2" t="n">
         <v>55649</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>55102</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2" t="n">
         <v>55240</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2" t="n">
         <v>55377</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="L3">
+      <c r="K3" s="2" t="n">
         <v>55516</v>
       </c>
-      <c r="N3">
+      <c r="M3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="N3" s="2" t="n">
         <v>55650</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>55103</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2" t="n">
         <v>55241</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2" t="n">
         <v>55378</v>
       </c>
-      <c r="K4">
+      <c r="J4" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="L4">
+      <c r="K4" s="2" t="n">
         <v>55517</v>
       </c>
-      <c r="N4">
+      <c r="M4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O4">
+      <c r="N4" s="2" t="n">
         <v>55651</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>55104</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2" t="n">
         <v>55242</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2" t="n">
         <v>55379</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="L5">
+      <c r="K5" s="2" t="n">
         <v>55518</v>
       </c>
-      <c r="N5">
+      <c r="M5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="N5" s="2" t="n">
         <v>55652</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>55105</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2" t="n">
         <v>55243</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2" t="n">
         <v>55380</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="L6">
+      <c r="K6" s="2" t="n">
         <v>55519</v>
       </c>
-      <c r="N6">
+      <c r="M6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O6">
+      <c r="N6" s="2" t="n">
         <v>55653</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>55106</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2" t="n">
         <v>55244</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2" t="n">
         <v>55381</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="L7">
+      <c r="K7" s="2" t="n">
         <v>55520</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="N7" s="2" t="n">
         <v>55654</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>55107</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2" t="n">
         <v>55245</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2" t="n">
         <v>55382</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="L8">
+      <c r="K8" s="2" t="n">
         <v>55521</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="N8" s="2" t="n">
         <v>55655</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>55108</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2" t="n">
         <v>55246</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2" t="n">
         <v>55383</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="L9">
+      <c r="K9" s="2" t="n">
         <v>55522</v>
       </c>
-      <c r="N9">
+      <c r="M9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="O9">
+      <c r="N9" s="2" t="n">
         <v>55656</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>55109</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2" t="n">
         <v>55247</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2" t="n">
         <v>55384</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="L10">
+      <c r="K10" s="2" t="n">
         <v>55523</v>
       </c>
-      <c r="N10">
+      <c r="M10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="O10">
+      <c r="N10" s="2" t="n">
         <v>55657</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>55110</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2" t="n">
         <v>55248</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2" t="n">
         <v>55385</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="L11">
+      <c r="K11" s="2" t="n">
         <v>55524</v>
       </c>
-      <c r="N11">
+      <c r="M11" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="O11">
+      <c r="N11" s="2" t="n">
         <v>55658</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>55111</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2" t="n">
         <v>55249</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2" t="n">
         <v>55386</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="L12">
+      <c r="K12" s="2" t="n">
         <v>55525</v>
       </c>
-      <c r="N12">
+      <c r="M12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="O12">
+      <c r="N12" s="2" t="n">
         <v>55659</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>55112</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2" t="n">
         <v>55250</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2" t="n">
         <v>55387</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="L13">
+      <c r="K13" s="2" t="n">
         <v>55526</v>
       </c>
-      <c r="N13">
+      <c r="M13" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O13">
+      <c r="N13" s="2" t="n">
         <v>55660</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>55113</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2" t="n">
         <v>55251</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2" t="n">
         <v>55388</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="L14">
+      <c r="K14" s="2" t="n">
         <v>55527</v>
       </c>
-      <c r="N14">
+      <c r="M14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="O14">
+      <c r="N14" s="2" t="n">
         <v>55661</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>55114</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2" t="n">
         <v>55252</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2" t="n">
         <v>55389</v>
       </c>
-      <c r="K15">
+      <c r="J15" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="L15">
+      <c r="K15" s="2" t="n">
         <v>55528</v>
       </c>
-      <c r="N15">
+      <c r="M15" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="O15">
+      <c r="N15" s="2" t="n">
         <v>55662</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>55115</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2" t="n">
         <v>55253</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2" t="n">
         <v>55390</v>
       </c>
-      <c r="K16">
+      <c r="J16" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="L16">
+      <c r="K16" s="2" t="n">
         <v>55529</v>
       </c>
-      <c r="N16">
+      <c r="M16" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="O16">
+      <c r="N16" s="2" t="n">
         <v>55663</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>55116</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2" t="n">
         <v>55254</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2" t="n">
         <v>55391</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="L17">
+      <c r="K17" s="2" t="n">
         <v>55530</v>
       </c>
-      <c r="N17">
+      <c r="M17" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="O17">
+      <c r="N17" s="2" t="n">
         <v>55664</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>55117</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2" t="n">
         <v>55255</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2" t="n">
         <v>55392</v>
       </c>
-      <c r="K18">
+      <c r="J18" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="L18">
+      <c r="K18" s="2" t="n">
         <v>55531</v>
       </c>
-      <c r="N18">
+      <c r="M18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="O18">
+      <c r="N18" s="2" t="n">
         <v>55665</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>55118</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2" t="n">
         <v>55256</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2" t="n">
         <v>55393</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="L19">
+      <c r="K19" s="2" t="n">
         <v>55532</v>
       </c>
-      <c r="N19">
+      <c r="M19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="O19">
+      <c r="N19" s="2" t="n">
         <v>55666</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>55119</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2" t="n">
         <v>55257</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2" t="n">
         <v>55394</v>
       </c>
-      <c r="K20">
+      <c r="J20" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="L20">
+      <c r="K20" s="2" t="n">
         <v>55533</v>
       </c>
-      <c r="N20">
+      <c r="M20" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="O20">
+      <c r="N20" s="2" t="n">
         <v>55667</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>55120</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2" t="n">
         <v>55258</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2" t="n">
         <v>55395</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="L21">
+      <c r="K21" s="2" t="n">
         <v>55534</v>
       </c>
-      <c r="N21">
+      <c r="M21" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="O21">
+      <c r="N21" s="2" t="n">
         <v>55668</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>55121</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2" t="n">
         <v>55259</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2" t="n">
         <v>55396</v>
       </c>
-      <c r="K22">
+      <c r="J22" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="L22">
+      <c r="K22" s="2" t="n">
         <v>55535</v>
       </c>
-      <c r="N22">
+      <c r="M22" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="O22">
+      <c r="N22" s="2" t="n">
         <v>55669</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>55122</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2" t="n">
         <v>55260</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2" t="n">
         <v>55397</v>
       </c>
-      <c r="K23">
+      <c r="J23" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="L23">
+      <c r="K23" s="2" t="n">
         <v>55536</v>
       </c>
-      <c r="N23">
+      <c r="M23" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="O23">
+      <c r="N23" s="2" t="n">
         <v>55670</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>55123</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2" t="n">
         <v>55261</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2" t="n">
         <v>55398</v>
       </c>
-      <c r="K24">
+      <c r="J24" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="L24">
+      <c r="K24" s="2" t="n">
         <v>55537</v>
       </c>
-      <c r="N24">
+      <c r="M24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="O24">
+      <c r="N24" s="2" t="n">
         <v>55671</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>55124</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2" t="n">
         <v>55262</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2" t="n">
         <v>55399</v>
       </c>
-      <c r="K25">
+      <c r="J25" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="L25">
+      <c r="K25" s="2" t="n">
         <v>55538</v>
       </c>
-      <c r="N25">
+      <c r="M25" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="O25">
+      <c r="N25" s="2" t="n">
         <v>55672</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>55125</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2" t="n">
         <v>55263</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2" t="n">
         <v>55400</v>
       </c>
-      <c r="K26">
+      <c r="J26" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="L26">
+      <c r="K26" s="2" t="n">
         <v>55539</v>
       </c>
-      <c r="N26">
+      <c r="M26" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="O26">
+      <c r="N26" s="2" t="n">
         <v>55673</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>55126</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2" t="n">
         <v>55264</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2" t="n">
         <v>55401</v>
       </c>
-      <c r="K27">
+      <c r="J27" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="L27">
+      <c r="K27" s="2" t="n">
         <v>55540</v>
       </c>
-      <c r="N27">
+      <c r="M27" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="O27">
+      <c r="N27" s="2" t="n">
         <v>55674</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>55127</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2" t="n">
         <v>55265</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2" t="n">
         <v>55402</v>
       </c>
-      <c r="K28">
+      <c r="J28" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="L28">
+      <c r="K28" s="2" t="n">
         <v>55541</v>
       </c>
-      <c r="N28">
+      <c r="M28" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="O28">
+      <c r="N28" s="2" t="n">
         <v>55675</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>55128</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2" t="n">
         <v>55266</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2" t="n">
         <v>55403</v>
       </c>
-      <c r="K29">
+      <c r="J29" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="L29">
+      <c r="K29" s="2" t="n">
         <v>55542</v>
       </c>
-      <c r="N29">
+      <c r="M29" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="O29">
+      <c r="N29" s="2" t="n">
         <v>55676</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>55129</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2" t="n">
         <v>55267</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2" t="n">
         <v>55404</v>
       </c>
-      <c r="K30">
+      <c r="J30" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="L30">
+      <c r="K30" s="2" t="n">
         <v>55543</v>
       </c>
-      <c r="N30">
+      <c r="M30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="O30">
+      <c r="N30" s="2" t="n">
         <v>55677</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>55130</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2" t="n">
         <v>55268</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2" t="n">
         <v>55405</v>
       </c>
-      <c r="K31">
+      <c r="J31" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="L31">
+      <c r="K31" s="2" t="n">
         <v>55544</v>
       </c>
-      <c r="N31">
+      <c r="M31" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="O31">
+      <c r="N31" s="2" t="n">
         <v>55678</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>55131</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2" t="n">
         <v>55269</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2" t="n">
         <v>55406</v>
       </c>
-      <c r="K32">
+      <c r="J32" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="L32">
+      <c r="K32" s="2" t="n">
         <v>55545</v>
       </c>
-      <c r="N32">
+      <c r="M32" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="O32">
+      <c r="N32" s="2" t="n">
         <v>55679</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <v>55132</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2" t="n">
         <v>55270</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2" t="n">
         <v>55407</v>
       </c>
-      <c r="K33">
+      <c r="J33" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="L33">
+      <c r="K33" s="2" t="n">
         <v>55546</v>
       </c>
-      <c r="N33">
+      <c r="M33" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="O33">
+      <c r="N33" s="2" t="n">
         <v>55680</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>55133</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2" t="n">
         <v>55271</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2" t="n">
         <v>55408</v>
       </c>
-      <c r="K34">
+      <c r="J34" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="L34">
+      <c r="K34" s="2" t="n">
         <v>55547</v>
       </c>
-      <c r="N34">
+      <c r="M34" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O34">
+      <c r="N34" s="2" t="n">
         <v>55681</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>55134</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2" t="n">
         <v>55272</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2" t="n">
         <v>55409</v>
       </c>
-      <c r="K35">
+      <c r="J35" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="L35">
+      <c r="K35" s="2" t="n">
         <v>55548</v>
       </c>
-      <c r="N35">
+      <c r="M35" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="O35">
+      <c r="N35" s="2" t="n">
         <v>55682</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>55135</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2" t="n">
         <v>55273</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2" t="n">
         <v>55410</v>
       </c>
-      <c r="K36">
+      <c r="J36" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="L36">
+      <c r="K36" s="2" t="n">
         <v>55549</v>
       </c>
-      <c r="N36">
+      <c r="M36" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="O36">
+      <c r="N36" s="2" t="n">
         <v>55683</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>55136</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2" t="n">
         <v>55274</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2" t="n">
         <v>55411</v>
       </c>
-      <c r="K37">
+      <c r="J37" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="L37">
+      <c r="K37" s="2" t="n">
         <v>55550</v>
       </c>
-      <c r="N37">
+      <c r="M37" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="O37">
+      <c r="N37" s="2" t="n">
         <v>55684</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>55137</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2" t="n">
         <v>55275</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2" t="n">
         <v>55412</v>
       </c>
-      <c r="K38">
+      <c r="J38" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="L38">
+      <c r="K38" s="2" t="n">
         <v>55551</v>
       </c>
-      <c r="N38">
+      <c r="M38" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="O38">
+      <c r="N38" s="2" t="n">
         <v>55685</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>55138</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2" t="n">
         <v>55276</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2" t="n">
         <v>55413</v>
       </c>
-      <c r="K39">
+      <c r="J39" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L39">
+      <c r="K39" s="2" t="n">
         <v>55552</v>
       </c>
-      <c r="N39">
+      <c r="M39" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O39">
+      <c r="N39" s="2" t="n">
         <v>55686</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>55139</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2" t="n">
         <v>55277</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2" t="n">
         <v>55414</v>
       </c>
-      <c r="K40">
+      <c r="J40" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="L40">
+      <c r="K40" s="2" t="n">
         <v>55553</v>
       </c>
-      <c r="N40">
+      <c r="M40" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="O40">
+      <c r="N40" s="2" t="n">
         <v>55687</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>55140</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2" t="n">
         <v>55278</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2" t="n">
         <v>55415</v>
       </c>
-      <c r="K41">
+      <c r="J41" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="L41">
+      <c r="K41" s="2" t="n">
         <v>55554</v>
       </c>
-      <c r="N41">
+      <c r="M41" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="O41">
+      <c r="N41" s="2" t="n">
         <v>55688</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>55141</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2" t="n">
         <v>55279</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2" t="n">
         <v>55416</v>
       </c>
-      <c r="K42">
+      <c r="J42" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="L42">
+      <c r="K42" s="2" t="n">
         <v>55555</v>
       </c>
-      <c r="N42">
+      <c r="M42" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="O42">
+      <c r="N42" s="2" t="n">
         <v>55689</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>55142</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2" t="n">
         <v>55280</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2" t="n">
         <v>55417</v>
       </c>
-      <c r="K43">
+      <c r="J43" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="L43">
+      <c r="K43" s="2" t="n">
         <v>55556</v>
       </c>
-      <c r="N43">
+      <c r="M43" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="O43">
+      <c r="N43" s="2" t="n">
         <v>55690</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>55143</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2" t="n">
         <v>55281</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2" t="n">
         <v>55418</v>
       </c>
-      <c r="K44">
+      <c r="J44" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="L44">
+      <c r="K44" s="2" t="n">
         <v>55557</v>
       </c>
-      <c r="N44">
+      <c r="M44" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="O44">
+      <c r="N44" s="2" t="n">
         <v>55691</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="n">
         <v>55144</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2" t="n">
         <v>55282</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2" t="n">
         <v>55419</v>
       </c>
-      <c r="K45">
+      <c r="J45" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="L45">
+      <c r="K45" s="2" t="n">
         <v>55558</v>
       </c>
-      <c r="N45">
+      <c r="M45" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="O45">
+      <c r="N45" s="2" t="n">
         <v>55692</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="n">
         <v>55145</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2" t="n">
         <v>55283</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2" t="n">
         <v>55420</v>
       </c>
-      <c r="K46">
+      <c r="J46" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="L46">
+      <c r="K46" s="2" t="n">
         <v>55559</v>
       </c>
-      <c r="N46">
+      <c r="M46" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="O46">
+      <c r="N46" s="2" t="n">
         <v>55693</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="n">
         <v>55146</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2" t="n">
         <v>55284</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2" t="n">
         <v>55421</v>
       </c>
-      <c r="K47">
+      <c r="J47" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="L47">
+      <c r="K47" s="2" t="n">
         <v>55560</v>
       </c>
-      <c r="N47">
+      <c r="M47" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="O47">
+      <c r="N47" s="2" t="n">
         <v>55694</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="n">
         <v>55147</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2" t="n">
         <v>55285</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2" t="n">
         <v>55422</v>
       </c>
-      <c r="K48">
+      <c r="J48" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="L48">
+      <c r="K48" s="2" t="n">
         <v>55561</v>
       </c>
-      <c r="N48">
+      <c r="M48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="O48">
+      <c r="N48" s="2" t="n">
         <v>55695</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="n">
         <v>55148</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2" t="n">
         <v>55286</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2" t="n">
         <v>55423</v>
       </c>
-      <c r="K49">
+      <c r="J49" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="L49">
+      <c r="K49" s="2" t="n">
         <v>55562</v>
       </c>
-      <c r="N49">
+      <c r="M49" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="O49">
+      <c r="N49" s="2" t="n">
         <v>55696</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="n">
         <v>55149</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2" t="n">
         <v>55287</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2" t="n">
         <v>55424</v>
       </c>
-      <c r="K50">
+      <c r="J50" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="L50">
+      <c r="K50" s="2" t="n">
         <v>55563</v>
       </c>
-      <c r="N50">
+      <c r="M50" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="O50">
+      <c r="N50" s="2" t="n">
         <v>55697</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="n">
         <v>55150</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2" t="n">
         <v>55288</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2" t="n">
         <v>55425</v>
       </c>
-      <c r="K51">
+      <c r="J51" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="L51">
+      <c r="K51" s="2" t="n">
         <v>55564</v>
       </c>
-      <c r="N51">
+      <c r="M51" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="O51">
+      <c r="N51" s="2" t="n">
         <v>55698</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="n">
         <v>55151</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2" t="n">
         <v>55289</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2" t="n">
         <v>55426</v>
       </c>
-      <c r="K52">
+      <c r="J52" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="L52">
+      <c r="K52" s="2" t="n">
         <v>55565</v>
       </c>
-      <c r="N52">
+      <c r="M52" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="O52">
+      <c r="N52" s="2" t="n">
         <v>55699</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="n">
         <v>55152</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2" t="n">
         <v>55290</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2" t="n">
         <v>55427</v>
       </c>
-      <c r="K53">
+      <c r="J53" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="L53">
+      <c r="K53" s="2" t="n">
         <v>55566</v>
       </c>
-      <c r="N53">
+      <c r="M53" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="O53">
+      <c r="N53" s="2" t="n">
         <v>55700</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
+    <row r="54" spans="1:15">
+      <c r="A54" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="n">
         <v>55153</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2" t="n">
         <v>55291</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2" t="n">
         <v>55428</v>
       </c>
-      <c r="K54">
+      <c r="J54" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="L54">
+      <c r="K54" s="2" t="n">
         <v>55567</v>
       </c>
-      <c r="N54">
+      <c r="M54" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="O54">
+      <c r="N54" s="2" t="n">
         <v>55701</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
+    <row r="55" spans="1:15">
+      <c r="A55" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="n">
         <v>55154</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2" t="n">
         <v>55292</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2" t="n">
         <v>55429</v>
       </c>
-      <c r="K55">
+      <c r="J55" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="L55">
+      <c r="K55" s="2" t="n">
         <v>55568</v>
       </c>
-      <c r="N55">
+      <c r="M55" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="O55">
+      <c r="N55" s="2" t="n">
         <v>55702</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="n">
         <v>55155</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2" t="n">
         <v>55293</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2" t="n">
         <v>55430</v>
       </c>
-      <c r="K56">
+      <c r="J56" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="L56">
+      <c r="K56" s="2" t="n">
         <v>55569</v>
       </c>
-      <c r="N56">
+      <c r="M56" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="O56">
+      <c r="N56" s="2" t="n">
         <v>55703</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="n">
         <v>55156</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2" t="n">
         <v>55294</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2" t="n">
         <v>55431</v>
       </c>
-      <c r="K57">
+      <c r="J57" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="L57">
+      <c r="K57" s="2" t="n">
         <v>55570</v>
       </c>
-      <c r="N57">
+      <c r="M57" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="O57">
+      <c r="N57" s="2" t="n">
         <v>55704</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="n">
         <v>55157</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2" t="n">
         <v>55295</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2" t="n">
         <v>55432</v>
       </c>
-      <c r="K58">
+      <c r="J58" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="L58">
+      <c r="K58" s="2" t="n">
         <v>55571</v>
       </c>
-      <c r="N58">
+      <c r="M58" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="O58">
+      <c r="N58" s="2" t="n">
         <v>55705</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="n">
         <v>55158</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2" t="n">
         <v>55296</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2" t="n">
         <v>55433</v>
       </c>
-      <c r="K59">
+      <c r="J59" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="L59">
+      <c r="K59" s="2" t="n">
         <v>55572</v>
       </c>
-      <c r="N59">
+      <c r="M59" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="O59">
+      <c r="N59" s="2" t="n">
         <v>55706</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
+    <row r="60" spans="1:15">
+      <c r="A60" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="n">
         <v>55159</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2" t="n">
         <v>55297</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2" t="n">
         <v>55434</v>
       </c>
-      <c r="K60">
+      <c r="J60" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="L60">
+      <c r="K60" s="2" t="n">
         <v>55573</v>
       </c>
-      <c r="N60">
+      <c r="M60" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="O60">
+      <c r="N60" s="2" t="n">
         <v>55707</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
+    <row r="61" spans="1:15">
+      <c r="A61" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="n">
         <v>55160</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2" t="n">
         <v>55298</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2" t="n">
         <v>55435</v>
       </c>
-      <c r="K61">
+      <c r="J61" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="L61">
+      <c r="K61" s="2" t="n">
         <v>55574</v>
       </c>
-      <c r="N61">
+      <c r="M61" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="O61">
+      <c r="N61" s="2" t="n">
         <v>55708</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="n">
         <v>55161</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2" t="n">
         <v>55299</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K62">
+      <c r="J62" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="L62">
+      <c r="K62" s="2" t="n">
         <v>55575</v>
       </c>
-      <c r="N62">
+      <c r="M62" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="O62" t="s">
+      <c r="N62" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
+    <row r="63" spans="1:15">
+      <c r="A63" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="n">
         <v>55162</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2" t="n">
         <v>55300</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2" t="n">
         <v>55436</v>
       </c>
-      <c r="K63">
+      <c r="J63" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="L63">
+      <c r="K63" s="2" t="n">
         <v>55576</v>
       </c>
-      <c r="N63">
+      <c r="M63" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="O63">
+      <c r="N63" s="2" t="n">
         <v>55709</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
+    <row r="64" spans="1:15">
+      <c r="A64" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="n">
         <v>55163</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2" t="n">
         <v>55301</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K64">
+      <c r="J64" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="L64">
+      <c r="K64" s="2" t="n">
         <v>55577</v>
       </c>
-      <c r="N64">
+      <c r="M64" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="O64" t="s">
+      <c r="N64" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
+    <row r="65" spans="1:15">
+      <c r="A65" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="n">
         <v>55164</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2" t="n">
         <v>55302</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K65">
+      <c r="J65" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="L65">
+      <c r="K65" s="2" t="n">
         <v>55578</v>
       </c>
-      <c r="N65">
+      <c r="M65" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="O65">
+      <c r="N65" s="2" t="n">
         <v>55710</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
+    <row r="66" spans="1:15">
+      <c r="A66" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="n">
         <v>55165</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2" t="n">
         <v>55303</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K66">
+      <c r="J66" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="L66">
+      <c r="K66" s="2" t="n">
         <v>55579</v>
       </c>
-      <c r="N66">
+      <c r="M66" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="O66">
+      <c r="N66" s="2" t="n">
         <v>55711</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
+    <row r="67" spans="1:15">
+      <c r="A67" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="n">
         <v>55166</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2" t="n">
         <v>55304</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K67">
+      <c r="J67" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="L67">
+      <c r="K67" s="2" t="n">
         <v>55580</v>
       </c>
-      <c r="N67">
+      <c r="M67" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="O67">
+      <c r="N67" s="2" t="n">
         <v>55712</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
+    <row r="68" spans="1:15">
+      <c r="A68" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="n">
         <v>55167</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2" t="n">
         <v>55305</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2" t="n">
         <v>55443</v>
       </c>
-      <c r="K68">
+      <c r="J68" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="L68">
+      <c r="K68" s="2" t="n">
         <v>55581</v>
       </c>
-      <c r="N68">
+      <c r="M68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="O68">
+      <c r="N68" s="2" t="n">
         <v>55713</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
+    <row r="69" spans="1:15">
+      <c r="A69" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="n">
         <v>55168</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2" t="n">
         <v>55306</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2" t="n">
         <v>55444</v>
       </c>
-      <c r="K69">
+      <c r="J69" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="L69">
+      <c r="K69" s="2" t="n">
         <v>55582</v>
       </c>
-      <c r="N69">
+      <c r="M69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="O69">
+      <c r="N69" s="2" t="n">
         <v>55714</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
+    <row r="70" spans="1:15">
+      <c r="A70" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="n">
         <v>55169</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2" t="n">
         <v>55307</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2" t="n">
         <v>55445</v>
       </c>
-      <c r="K70">
+      <c r="J70" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="L70">
+      <c r="K70" s="2" t="n">
         <v>55583</v>
       </c>
-      <c r="N70">
+      <c r="M70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="O70">
+      <c r="N70" s="2" t="n">
         <v>55715</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
+    <row r="71" spans="1:15">
+      <c r="A71" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="n">
         <v>55170</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2" t="n">
         <v>55308</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2" t="n">
         <v>55446</v>
       </c>
-      <c r="K71">
+      <c r="J71" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="L71">
+      <c r="K71" s="2" t="n">
         <v>55584</v>
       </c>
-      <c r="N71">
+      <c r="M71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="O71">
+      <c r="N71" s="2" t="n">
         <v>55716</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
+    <row r="72" spans="1:15">
+      <c r="A72" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="n">
         <v>55171</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2" t="n">
         <v>55309</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2" t="n">
         <v>55447</v>
       </c>
-      <c r="K72">
+      <c r="J72" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="L72">
+      <c r="K72" s="2" t="n">
         <v>55585</v>
       </c>
-      <c r="N72">
+      <c r="M72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="O72">
+      <c r="N72" s="2" t="n">
         <v>55717</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
+    <row r="73" spans="1:15">
+      <c r="A73" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="n">
         <v>55172</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2" t="n">
         <v>55310</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2" t="n">
         <v>55448</v>
       </c>
-      <c r="K73">
+      <c r="J73" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="L73">
+      <c r="K73" s="2" t="n">
         <v>55586</v>
       </c>
-      <c r="N73">
+      <c r="M73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="O73">
+      <c r="N73" s="2" t="n">
         <v>55718</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
+    <row r="74" spans="1:15">
+      <c r="A74" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="n">
         <v>55173</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2" t="n">
         <v>55311</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2" t="n">
         <v>55449</v>
       </c>
-      <c r="K74">
+      <c r="J74" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="L74">
+      <c r="K74" s="2" t="n">
         <v>55587</v>
       </c>
-      <c r="N74">
+      <c r="M74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="O74">
+      <c r="N74" s="2" t="n">
         <v>55719</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="n">
         <v>55174</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2" t="n">
         <v>55312</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2" t="n">
         <v>55450</v>
       </c>
-      <c r="K75">
+      <c r="J75" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="L75" t="s">
+      <c r="K75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N75">
+      <c r="M75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="O75">
+      <c r="N75" s="2" t="n">
         <v>55720</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
+    <row r="76" spans="1:15">
+      <c r="A76" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="n">
         <v>55175</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2" t="n">
         <v>55313</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2" t="n">
         <v>55451</v>
       </c>
-      <c r="K76">
+      <c r="J76" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="L76">
+      <c r="K76" s="2" t="n">
         <v>55588</v>
       </c>
-      <c r="N76">
+      <c r="M76" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="O76">
+      <c r="N76" s="2" t="n">
         <v>55721</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="n">
         <v>55176</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2" t="n">
         <v>55314</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2" t="n">
         <v>55452</v>
       </c>
-      <c r="K77">
+      <c r="J77" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="L77" t="s">
+      <c r="K77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N77">
+      <c r="M77" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="O77">
+      <c r="N77" s="2" t="n">
         <v>55722</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
+    <row r="78" spans="1:15">
+      <c r="A78" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="n">
         <v>55177</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2" t="n">
         <v>55315</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2" t="n">
         <v>55453</v>
       </c>
-      <c r="K78">
+      <c r="J78" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="L78">
+      <c r="K78" s="2" t="n">
         <v>55589</v>
       </c>
-      <c r="N78">
+      <c r="M78" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="O78">
+      <c r="N78" s="2" t="n">
         <v>55723</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
+    <row r="79" spans="1:15">
+      <c r="A79" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="n">
         <v>55178</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2" t="n">
         <v>55316</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2" t="n">
         <v>55454</v>
       </c>
-      <c r="K79">
+      <c r="J79" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="L79">
+      <c r="K79" s="2" t="n">
         <v>55590</v>
       </c>
-      <c r="N79">
+      <c r="M79" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="O79">
+      <c r="N79" s="2" t="n">
         <v>55724</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
+    <row r="80" spans="1:15">
+      <c r="A80" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="n">
         <v>55179</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2" t="n">
         <v>55317</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2" t="n">
         <v>55455</v>
       </c>
-      <c r="K80">
+      <c r="J80" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="L80">
+      <c r="K80" s="2" t="n">
         <v>55591</v>
       </c>
-      <c r="N80">
+      <c r="M80" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="O80">
+      <c r="N80" s="2" t="n">
         <v>55725</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
+    <row r="81" spans="1:15">
+      <c r="A81" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="n">
         <v>55180</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2" t="n">
         <v>55318</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2" t="n">
         <v>55456</v>
       </c>
-      <c r="K81">
+      <c r="J81" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="L81">
+      <c r="K81" s="2" t="n">
         <v>55592</v>
       </c>
-      <c r="N81">
+      <c r="M81" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="O81">
+      <c r="N81" s="2" t="n">
         <v>55726</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
+    <row r="82" spans="1:15">
+      <c r="A82" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="n">
         <v>55181</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2" t="n">
         <v>55319</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2" t="n">
         <v>55457</v>
       </c>
-      <c r="K82">
+      <c r="J82" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="L82">
+      <c r="K82" s="2" t="n">
         <v>55593</v>
       </c>
-      <c r="N82">
+      <c r="M82" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="O82">
+      <c r="N82" s="2" t="n">
         <v>55727</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
+    <row r="83" spans="1:15">
+      <c r="A83" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="n">
         <v>55182</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2" t="n">
         <v>55320</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2" t="n">
         <v>55458</v>
       </c>
-      <c r="K83">
+      <c r="J83" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="L83">
+      <c r="K83" s="2" t="n">
         <v>55594</v>
       </c>
-      <c r="N83">
+      <c r="M83" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="O83">
+      <c r="N83" s="2" t="n">
         <v>55728</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
+    <row r="84" spans="1:15">
+      <c r="A84" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="n">
         <v>55183</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2" t="n">
         <v>55321</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2" t="n">
         <v>55459</v>
       </c>
-      <c r="K84">
+      <c r="J84" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="L84">
+      <c r="K84" s="2" t="n">
         <v>55595</v>
       </c>
-      <c r="N84">
+      <c r="M84" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="O84">
+      <c r="N84" s="2" t="n">
         <v>55729</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
+    <row r="85" spans="1:15">
+      <c r="A85" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="n">
         <v>55184</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2" t="n">
         <v>55322</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2" t="n">
         <v>55460</v>
       </c>
-      <c r="K85">
+      <c r="J85" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="L85">
+      <c r="K85" s="2" t="n">
         <v>55596</v>
       </c>
-      <c r="N85">
+      <c r="M85" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="O85">
+      <c r="N85" s="2" t="n">
         <v>55730</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
+    <row r="86" spans="1:15">
+      <c r="A86" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="n">
         <v>55185</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2" t="n">
         <v>55323</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2" t="n">
         <v>55461</v>
       </c>
-      <c r="K86">
+      <c r="J86" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="L86">
+      <c r="K86" s="2" t="n">
         <v>55597</v>
       </c>
-      <c r="N86">
+      <c r="M86" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="O86">
+      <c r="N86" s="2" t="n">
         <v>55731</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
+    <row r="87" spans="1:15">
+      <c r="A87" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="n">
         <v>55186</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2" t="n">
         <v>55324</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="2" t="n">
         <v>55462</v>
       </c>
-      <c r="K87">
+      <c r="J87" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="L87">
+      <c r="K87" s="2" t="n">
         <v>55598</v>
       </c>
-      <c r="N87">
+      <c r="M87" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="O87">
+      <c r="N87" s="2" t="n">
         <v>55732</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
+    <row r="88" spans="1:15">
+      <c r="A88" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="n">
         <v>55187</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2" t="n">
         <v>55325</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="2" t="n">
         <v>55463</v>
       </c>
-      <c r="K88">
+      <c r="J88" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="L88">
+      <c r="K88" s="2" t="n">
         <v>55599</v>
       </c>
-      <c r="N88">
+      <c r="M88" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="O88">
+      <c r="N88" s="2" t="n">
         <v>55733</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
+    <row r="89" spans="1:15">
+      <c r="A89" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="n">
         <v>55188</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2" t="n">
         <v>55326</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2" t="n">
         <v>55464</v>
       </c>
-      <c r="K89">
+      <c r="J89" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="L89">
+      <c r="K89" s="2" t="n">
         <v>55600</v>
       </c>
-      <c r="N89">
+      <c r="M89" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="O89">
+      <c r="N89" s="2" t="n">
         <v>55734</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90">
+    <row r="90" spans="1:15">
+      <c r="A90" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="n">
         <v>55189</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2" t="n">
         <v>55327</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="2" t="n">
         <v>55465</v>
       </c>
-      <c r="K90">
+      <c r="J90" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="L90">
+      <c r="K90" s="2" t="n">
         <v>55601</v>
       </c>
-      <c r="N90">
+      <c r="M90" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="O90">
+      <c r="N90" s="2" t="n">
         <v>55735</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91">
+    <row r="91" spans="1:15">
+      <c r="A91" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="n">
         <v>55190</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2" t="n">
         <v>55328</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="2" t="n">
         <v>55466</v>
       </c>
-      <c r="K91">
+      <c r="J91" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="L91">
+      <c r="K91" s="2" t="n">
         <v>55602</v>
       </c>
-      <c r="N91">
+      <c r="M91" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="O91">
+      <c r="N91" s="2" t="n">
         <v>55736</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92">
+    <row r="92" spans="1:15">
+      <c r="A92" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="n">
         <v>55191</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2" t="n">
         <v>55329</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2" t="n">
         <v>55467</v>
       </c>
-      <c r="K92">
+      <c r="J92" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="L92">
+      <c r="K92" s="2" t="n">
         <v>55603</v>
       </c>
-      <c r="N92">
+      <c r="M92" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="O92">
+      <c r="N92" s="2" t="n">
         <v>55737</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93">
+    <row r="93" spans="1:15">
+      <c r="A93" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="n">
         <v>55192</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2" t="n">
         <v>55330</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2" t="n">
         <v>55468</v>
       </c>
-      <c r="K93">
+      <c r="J93" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="L93">
+      <c r="K93" s="2" t="n">
         <v>55604</v>
       </c>
-      <c r="N93">
+      <c r="M93" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="O93">
+      <c r="N93" s="2" t="n">
         <v>55738</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94">
+    <row r="94" spans="1:15">
+      <c r="A94" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="n">
         <v>55193</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2" t="n">
         <v>55331</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="2" t="n">
         <v>55469</v>
       </c>
-      <c r="K94">
+      <c r="J94" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="L94">
+      <c r="K94" s="2" t="n">
         <v>55605</v>
       </c>
-      <c r="N94">
+      <c r="M94" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="O94">
+      <c r="N94" s="2" t="n">
         <v>55739</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95">
+    <row r="95" spans="1:15">
+      <c r="A95" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="n">
         <v>55194</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2" t="n">
         <v>55332</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2" t="n">
         <v>55470</v>
       </c>
-      <c r="K95">
+      <c r="J95" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="L95">
+      <c r="K95" s="2" t="n">
         <v>55606</v>
       </c>
-      <c r="N95">
+      <c r="M95" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="O95">
+      <c r="N95" s="2" t="n">
         <v>55740</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96">
+    <row r="96" spans="1:15">
+      <c r="A96" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="n">
         <v>55195</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2" t="n">
         <v>55333</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2" t="n">
         <v>55471</v>
       </c>
-      <c r="K96">
+      <c r="J96" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="L96">
+      <c r="K96" s="2" t="n">
         <v>55607</v>
       </c>
-      <c r="N96">
+      <c r="M96" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="O96">
+      <c r="N96" s="2" t="n">
         <v>55741</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97">
+    <row r="97" spans="1:15">
+      <c r="A97" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="n">
         <v>55196</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2" t="n">
         <v>55334</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2" t="n">
         <v>55472</v>
       </c>
-      <c r="K97">
+      <c r="J97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="L97">
+      <c r="K97" s="2" t="n">
         <v>55608</v>
       </c>
-      <c r="M97" t="s">
+      <c r="L97" t="s">
         <v>2</v>
       </c>
-      <c r="N97">
+      <c r="M97" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="O97">
+      <c r="N97" s="2" t="n">
         <v>55742</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98">
+    <row r="98" spans="1:15">
+      <c r="A98" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="n">
         <v>55197</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2" t="n">
         <v>55335</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="2" t="n">
         <v>55473</v>
       </c>
-      <c r="K98">
+      <c r="J98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="L98">
+      <c r="K98" s="2" t="n">
         <v>55609</v>
       </c>
-      <c r="N98">
+      <c r="M98" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="O98">
+      <c r="N98" s="2" t="n">
         <v>55743</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99">
+    <row r="99" spans="1:15">
+      <c r="A99" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="n">
         <v>55198</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2" t="n">
         <v>55336</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2" t="n">
         <v>55474</v>
       </c>
-      <c r="K99">
+      <c r="J99" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="L99">
+      <c r="K99" s="2" t="n">
         <v>55610</v>
       </c>
-      <c r="N99">
+      <c r="M99" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="O99">
+      <c r="N99" s="2" t="n">
         <v>55744</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100">
+    <row r="100" spans="1:15">
+      <c r="A100" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="n">
         <v>55199</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2" t="n">
         <v>55337</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2" t="n">
         <v>55475</v>
       </c>
-      <c r="K100">
+      <c r="J100" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="L100">
+      <c r="K100" s="2" t="n">
         <v>55611</v>
       </c>
-      <c r="N100">
+      <c r="M100" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O100">
+      <c r="N100" s="2" t="n">
         <v>55745</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101">
+    <row r="101" spans="1:15">
+      <c r="A101" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="n">
         <v>55200</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2" t="n">
         <v>55338</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="2" t="n">
         <v>55476</v>
       </c>
-      <c r="K101">
+      <c r="J101" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="L101">
+      <c r="K101" s="2" t="n">
         <v>55612</v>
       </c>
-      <c r="N101">
+      <c r="M101" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="O101">
+      <c r="N101" s="2" t="n">
         <v>55746</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102">
+    <row r="102" spans="1:15">
+      <c r="A102" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="n">
         <v>55201</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2" t="n">
         <v>55339</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="2" t="n">
         <v>55477</v>
       </c>
-      <c r="K102">
+      <c r="J102" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="L102">
+      <c r="K102" s="2" t="n">
         <v>55613</v>
       </c>
-      <c r="N102">
+      <c r="M102" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="O102">
+      <c r="N102" s="2" t="n">
         <v>55747</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103">
+    <row r="103" spans="1:15">
+      <c r="A103" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="n">
         <v>55202</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2" t="n">
         <v>55340</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="2" t="n">
         <v>55478</v>
       </c>
-      <c r="K103">
+      <c r="J103" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="L103">
+      <c r="K103" s="2" t="n">
         <v>55614</v>
       </c>
-      <c r="N103">
+      <c r="M103" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="O103">
+      <c r="N103" s="2" t="n">
         <v>55748</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104">
+    <row r="104" spans="1:15">
+      <c r="A104" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2" t="n">
         <v>55203</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2" t="n">
         <v>55341</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="2" t="n">
         <v>55479</v>
       </c>
-      <c r="K104">
+      <c r="J104" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="L104">
+      <c r="K104" s="2" t="n">
         <v>55615</v>
       </c>
-      <c r="N104">
+      <c r="M104" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="O104">
+      <c r="N104" s="2" t="n">
         <v>55749</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105">
+    <row r="105" spans="1:15">
+      <c r="A105" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2" t="n">
         <v>55204</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2" t="n">
         <v>55342</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="2" t="n">
         <v>55480</v>
       </c>
-      <c r="K105">
+      <c r="J105" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="L105">
+      <c r="K105" s="2" t="n">
         <v>55616</v>
       </c>
-      <c r="N105">
+      <c r="M105" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="O105">
+      <c r="N105" s="2" t="n">
         <v>55750</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106">
+    <row r="106" spans="1:15">
+      <c r="A106" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2" t="n">
         <v>55205</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2" t="n">
         <v>55343</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="2" t="n">
         <v>55481</v>
       </c>
-      <c r="K106">
+      <c r="J106" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="L106">
+      <c r="K106" s="2" t="n">
         <v>55617</v>
       </c>
-      <c r="N106">
+      <c r="M106" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="O106">
+      <c r="N106" s="2" t="n">
         <v>55751</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107">
+    <row r="107" spans="1:15">
+      <c r="A107" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2" t="n">
         <v>55206</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2" t="n">
         <v>55344</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="2" t="n">
         <v>55482</v>
       </c>
-      <c r="K107">
+      <c r="J107" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="L107">
+      <c r="K107" s="2" t="n">
         <v>55618</v>
       </c>
-      <c r="N107">
+      <c r="M107" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="O107">
+      <c r="N107" s="2" t="n">
         <v>55752</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108">
+    <row r="108" spans="1:15">
+      <c r="A108" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="n">
         <v>55207</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2" t="n">
         <v>55345</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="2" t="n">
         <v>55483</v>
       </c>
-      <c r="K108">
+      <c r="J108" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="L108">
+      <c r="K108" s="2" t="n">
         <v>55619</v>
       </c>
-      <c r="N108">
+      <c r="M108" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="O108">
+      <c r="N108" s="2" t="n">
         <v>55753</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109">
+    <row r="109" spans="1:15">
+      <c r="A109" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="n">
         <v>55208</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2" t="n">
         <v>55346</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="2" t="n">
         <v>55484</v>
       </c>
-      <c r="K109">
+      <c r="J109" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L109">
+      <c r="K109" s="2" t="n">
         <v>55620</v>
       </c>
-      <c r="N109">
+      <c r="M109" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="O109">
+      <c r="N109" s="2" t="n">
         <v>55754</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110">
+    <row r="110" spans="1:15">
+      <c r="A110" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="n">
         <v>55209</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2" t="n">
         <v>55347</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="2" t="n">
         <v>55485</v>
       </c>
-      <c r="K110">
+      <c r="J110" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="L110">
+      <c r="K110" s="2" t="n">
         <v>55621</v>
       </c>
-      <c r="N110">
+      <c r="M110" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="O110">
+      <c r="N110" s="2" t="n">
         <v>55755</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111">
+    <row r="111" spans="1:15">
+      <c r="A111" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="n">
         <v>55210</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2" t="n">
         <v>55348</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="2" t="n">
         <v>55486</v>
       </c>
-      <c r="K111">
+      <c r="J111" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="L111">
+      <c r="K111" s="2" t="n">
         <v>55622</v>
       </c>
-      <c r="N111">
+      <c r="M111" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="O111">
+      <c r="N111" s="2" t="n">
         <v>55756</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112">
+    <row r="112" spans="1:15">
+      <c r="A112" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2" t="n">
         <v>55211</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2" t="n">
         <v>55349</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="2" t="n">
         <v>55487</v>
       </c>
-      <c r="K112">
+      <c r="J112" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="L112">
+      <c r="K112" s="2" t="n">
         <v>55623</v>
       </c>
-      <c r="N112">
+      <c r="M112" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="O112">
+      <c r="N112" s="2" t="n">
         <v>55757</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113">
+    <row r="113" spans="1:15">
+      <c r="A113" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="n">
         <v>55212</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2" t="n">
         <v>55350</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="2" t="n">
         <v>55488</v>
       </c>
-      <c r="K113">
+      <c r="J113" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="L113">
+      <c r="K113" s="2" t="n">
         <v>55624</v>
       </c>
-      <c r="N113">
+      <c r="M113" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="O113">
+      <c r="N113" s="2" t="n">
         <v>55758</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114">
+    <row r="114" spans="1:15">
+      <c r="A114" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" s="2" t="n">
         <v>55213</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2" t="n">
         <v>55351</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="2" t="n">
         <v>55489</v>
       </c>
-      <c r="K114">
+      <c r="J114" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L114">
+      <c r="K114" s="2" t="n">
         <v>55625</v>
       </c>
-      <c r="N114">
+      <c r="M114" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="O114">
+      <c r="N114" s="2" t="n">
         <v>55759</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115">
+    <row r="115" spans="1:15">
+      <c r="A115" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" s="2" t="n">
         <v>55214</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2" t="n">
         <v>55352</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="2" t="n">
         <v>55490</v>
       </c>
-      <c r="K115">
+      <c r="J115" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="L115">
+      <c r="K115" s="2" t="n">
         <v>55626</v>
       </c>
-      <c r="N115">
+      <c r="M115" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="O115">
+      <c r="N115" s="2" t="n">
         <v>55760</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116">
+    <row r="116" spans="1:15">
+      <c r="A116" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" s="2" t="n">
         <v>55215</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2" t="n">
         <v>55353</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="2" t="n">
         <v>55491</v>
       </c>
-      <c r="K116">
+      <c r="J116" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="L116">
+      <c r="K116" s="2" t="n">
         <v>55627</v>
       </c>
-      <c r="N116">
+      <c r="M116" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="O116">
+      <c r="N116" s="2" t="n">
         <v>55761</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117">
+    <row r="117" spans="1:15">
+      <c r="A117" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2" t="n">
         <v>55216</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2" t="n">
         <v>55354</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="2" t="n">
         <v>55492</v>
       </c>
-      <c r="K117">
+      <c r="J117" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="L117">
+      <c r="K117" s="2" t="n">
         <v>55628</v>
       </c>
-      <c r="N117">
+      <c r="M117" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="O117">
+      <c r="N117" s="2" t="n">
         <v>55762</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118">
+    <row r="118" spans="1:15">
+      <c r="A118" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2" t="n">
         <v>55217</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2" t="n">
         <v>55355</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="2" t="n">
         <v>55493</v>
       </c>
-      <c r="K118">
+      <c r="J118" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="L118">
+      <c r="K118" s="2" t="n">
         <v>55629</v>
       </c>
-      <c r="N118">
+      <c r="M118" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="O118">
+      <c r="N118" s="2" t="n">
         <v>55763</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119">
+    <row r="119" spans="1:15">
+      <c r="A119" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" s="2" t="n">
         <v>55218</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2" t="n">
         <v>55356</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="2" t="n">
         <v>55494</v>
       </c>
-      <c r="K119">
+      <c r="J119" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L119">
+      <c r="K119" s="2" t="n">
         <v>55630</v>
       </c>
-      <c r="N119">
+      <c r="M119" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="O119">
+      <c r="N119" s="2" t="n">
         <v>55764</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120">
+    <row r="120" spans="1:15">
+      <c r="A120" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" s="2" t="n">
         <v>55219</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="2" t="n">
         <v>55357</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="2" t="n">
         <v>55495</v>
       </c>
-      <c r="K120">
+      <c r="J120" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="L120">
+      <c r="K120" s="2" t="n">
         <v>55631</v>
       </c>
-      <c r="N120">
+      <c r="M120" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="O120">
+      <c r="N120" s="2" t="n">
         <v>55765</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121">
+    <row r="121" spans="1:15">
+      <c r="A121" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" s="2" t="n">
         <v>55220</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="2" t="n">
         <v>55358</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="2" t="n">
         <v>55496</v>
       </c>
-      <c r="K121">
+      <c r="J121" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="L121">
+      <c r="K121" s="2" t="n">
         <v>55632</v>
       </c>
-      <c r="N121">
+      <c r="M121" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="O121">
+      <c r="N121" s="2" t="n">
         <v>55766</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122">
+    <row r="122" spans="1:15">
+      <c r="A122" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" s="2" t="n">
         <v>55221</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="2" t="n">
         <v>55359</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="2" t="n">
         <v>55497</v>
       </c>
-      <c r="K122">
+      <c r="J122" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L122">
+      <c r="K122" s="2" t="n">
         <v>55633</v>
       </c>
-      <c r="N122">
+      <c r="M122" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="O122">
+      <c r="N122" s="2" t="n">
         <v>55767</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123">
+    <row r="123" spans="1:15">
+      <c r="A123" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2" t="n">
         <v>55222</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2" t="n">
         <v>55360</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="2" t="n">
         <v>55498</v>
       </c>
-      <c r="K123">
+      <c r="J123" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="L123">
+      <c r="K123" s="2" t="n">
         <v>55634</v>
       </c>
-      <c r="N123">
+      <c r="M123" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="O123">
+      <c r="N123" s="2" t="n">
         <v>55768</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124">
+    <row r="124" spans="1:15">
+      <c r="A124" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="n">
         <v>55223</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2" t="n">
         <v>55361</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="2" t="n">
         <v>55499</v>
       </c>
-      <c r="K124">
+      <c r="J124" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L124">
+      <c r="K124" s="2" t="n">
         <v>55635</v>
       </c>
-      <c r="N124">
+      <c r="M124" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="O124">
+      <c r="N124" s="2" t="n">
         <v>55769</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125">
+    <row r="125" spans="1:15">
+      <c r="A125" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2" t="n">
         <v>55224</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="2" t="n">
         <v>55362</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="2" t="n">
         <v>55500</v>
       </c>
-      <c r="K125">
+      <c r="J125" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L125">
+      <c r="K125" s="2" t="n">
         <v>55636</v>
       </c>
-      <c r="N125">
+      <c r="M125" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="O125">
+      <c r="N125" s="2" t="n">
         <v>55770</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126">
+    <row r="126" spans="1:15">
+      <c r="A126" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B126" s="2" t="n">
         <v>55225</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="2" t="n">
         <v>55363</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="2" t="n">
         <v>55501</v>
       </c>
-      <c r="K126">
+      <c r="J126" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="L126">
+      <c r="K126" s="2" t="n">
         <v>55637</v>
       </c>
-      <c r="N126">
+      <c r="M126" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="O126">
+      <c r="N126" s="2" t="n">
         <v>55771</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127">
+    <row r="127" spans="1:15">
+      <c r="A127" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="n">
         <v>55226</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="2" t="n">
         <v>55364</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="2" t="n">
         <v>55502</v>
       </c>
-      <c r="K127">
+      <c r="J127" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="L127">
+      <c r="K127" s="2" t="n">
         <v>55638</v>
       </c>
-      <c r="N127">
+      <c r="M127" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="O127">
+      <c r="N127" s="2" t="n">
         <v>55772</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128">
+    <row r="128" spans="1:15">
+      <c r="A128" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B128" s="2" t="n">
         <v>55227</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="2" t="n">
         <v>55365</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="2" t="n">
         <v>55503</v>
       </c>
-      <c r="K128">
+      <c r="J128" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="L128">
+      <c r="K128" s="2" t="n">
         <v>55639</v>
       </c>
-      <c r="N128">
+      <c r="M128" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="O128">
+      <c r="N128" s="2" t="n">
         <v>55773</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129">
+    <row r="129" spans="1:15">
+      <c r="A129" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2" t="n">
         <v>55228</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2" t="n">
         <v>55366</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="2" t="n">
         <v>55504</v>
       </c>
-      <c r="K129">
+      <c r="J129" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L129">
+      <c r="K129" s="2" t="n">
         <v>55640</v>
       </c>
-      <c r="N129">
+      <c r="M129" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="O129">
+      <c r="N129" s="2" t="n">
         <v>55774</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130">
+    <row r="130" spans="1:15">
+      <c r="A130" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2" t="n">
         <v>55229</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2" t="n">
         <v>55367</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="2" t="n">
         <v>55505</v>
       </c>
-      <c r="K130">
+      <c r="J130" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L130">
+      <c r="K130" s="2" t="n">
         <v>55641</v>
       </c>
-      <c r="N130">
+      <c r="M130" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="O130">
+      <c r="N130" s="2" t="n">
         <v>55775</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131">
+    <row r="131" spans="1:15">
+      <c r="A131" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2" t="n">
         <v>55230</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2" t="n">
         <v>55368</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="2" t="n">
         <v>55506</v>
       </c>
-      <c r="K131">
+      <c r="J131" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L131">
+      <c r="K131" s="2" t="n">
         <v>55642</v>
       </c>
-      <c r="N131">
+      <c r="M131" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="O131">
+      <c r="N131" s="2" t="n">
         <v>55776</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132">
+    <row r="132" spans="1:15">
+      <c r="A132" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2" t="n">
         <v>55231</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2" t="n">
         <v>55369</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="2" t="n">
         <v>55507</v>
       </c>
-      <c r="K132">
+      <c r="J132" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L132">
+      <c r="K132" s="2" t="n">
         <v>55643</v>
       </c>
-      <c r="N132">
+      <c r="M132" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="O132">
+      <c r="N132" s="2" t="n">
         <v>55777</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133">
+    <row r="133" spans="1:15">
+      <c r="A133" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2" t="n">
         <v>55232</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2" t="n">
         <v>55370</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="2" t="n">
         <v>55508</v>
       </c>
-      <c r="K133">
+      <c r="J133" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L133">
+      <c r="K133" s="2" t="n">
         <v>55644</v>
       </c>
-      <c r="N133">
+      <c r="M133" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="O133">
+      <c r="N133" s="2" t="n">
         <v>55778</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134">
+    <row r="134" spans="1:15">
+      <c r="A134" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B134" s="2" t="n">
         <v>55233</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2" t="n">
         <v>55371</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="2" t="n">
         <v>55509</v>
       </c>
-      <c r="K134">
+      <c r="J134" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L134">
+      <c r="K134" s="2" t="n">
         <v>55645</v>
       </c>
-      <c r="N134">
+      <c r="M134" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="O134">
+      <c r="N134" s="2" t="n">
         <v>55779</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135">
+    <row r="135" spans="1:15">
+      <c r="A135" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B135" s="2" t="n">
         <v>55234</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2" t="n">
         <v>55372</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="2" t="n">
         <v>55510</v>
       </c>
-      <c r="K135">
+      <c r="J135" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L135">
+      <c r="K135" s="2" t="n">
         <v>55646</v>
       </c>
-      <c r="N135">
+      <c r="M135" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="O135">
+      <c r="N135" s="2" t="n">
         <v>55780</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136">
+    <row r="136" spans="1:15">
+      <c r="A136" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="n">
         <v>55235</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="2" t="n">
         <v>55373</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="2" t="n">
         <v>55511</v>
       </c>
-      <c r="K136">
+      <c r="J136" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L136">
+      <c r="K136" s="2" t="n">
         <v>55647</v>
       </c>
-      <c r="N136">
+      <c r="M136" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="O136">
+      <c r="N136" s="2" t="n">
         <v>55781</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137">
+    <row r="137" spans="1:15">
+      <c r="A137" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B137" s="2" t="n">
         <v>55236</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="2" t="n">
         <v>55374</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="2" t="n">
         <v>55512</v>
       </c>
-      <c r="K137">
+      <c r="J137" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L137">
+      <c r="K137" s="2" t="n">
         <v>55648</v>
       </c>
-      <c r="N137">
+      <c r="M137" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="O137">
+      <c r="N137" s="2" t="n">
         <v>55782</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138">
+    <row r="138" spans="1:15">
+      <c r="A138" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2" t="n">
         <v>55237</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="2" t="n">
         <v>55375</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="2" t="n">
         <v>55513</v>
       </c>
-      <c r="K138">
+      <c r="J138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L138" t="s">
+      <c r="K138" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N138">
+      <c r="M138" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="O138">
+      <c r="N138" s="2" t="n">
         <v>55783</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551256869" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1551256869" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551256869" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551256869" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>